--- a/double-cross/checklist.xlsx
+++ b/double-cross/checklist.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/double-cross/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3D83F2-6D2D-D045-868F-9C88A8B18DE9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EC645EC-5E0B-B442-B97F-9C89DFC945FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="460" windowWidth="26740" windowHeight="15780" xr2:uid="{FB8A04DD-F17B-5744-969C-A83E75C4414D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="checklist" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="66">
   <si>
     <t>year</t>
   </si>
@@ -157,13 +157,88 @@
   </si>
   <si>
     <t>livebox.jpg</t>
+  </si>
+  <si>
+    <t>double-cross-3rd.jpg</t>
+  </si>
+  <si>
+    <t>Double Cross: The 3rd Edition Rulebook 1</t>
+  </si>
+  <si>
+    <t>ダブルクロス The 3rd Edition ルールブック1</t>
+  </si>
+  <si>
+    <t>ダブルクロス The 3rd Edition ルールブック2</t>
+  </si>
+  <si>
+    <t>Double Cross: The 3rd Edition Rulebook 2</t>
+  </si>
+  <si>
+    <t>double-cross-3rd-v2.jpg</t>
+  </si>
+  <si>
+    <t>ダブルクロスThe 3rd Edition 上級ルールブック</t>
+  </si>
+  <si>
+    <t>Double Cross: The 3rd Edition Advanced Rulebook</t>
+  </si>
+  <si>
+    <t>double-cross-3rd-advanced.jpg</t>
+  </si>
+  <si>
+    <t>deep-front.jpg</t>
+  </si>
+  <si>
+    <t>ディープフロント</t>
+  </si>
+  <si>
+    <t>Deep Front</t>
+  </si>
+  <si>
+    <t>F.E.A.R.</t>
+  </si>
+  <si>
+    <t>ムーンレスナイト</t>
+  </si>
+  <si>
+    <t>Moonless Night</t>
+  </si>
+  <si>
+    <t>moonless-night.jpg</t>
+  </si>
+  <si>
+    <t>パブリックエネミー</t>
+  </si>
+  <si>
+    <t>Public Enemy</t>
+  </si>
+  <si>
+    <t>public-enemy.jpg</t>
+  </si>
+  <si>
+    <t>インフィニティコード</t>
+  </si>
+  <si>
+    <t>Infinity Code</t>
+  </si>
+  <si>
+    <t>infinity-code.jpg</t>
+  </si>
+  <si>
+    <t>ディスカラードレルム</t>
+  </si>
+  <si>
+    <t>Discolored Realm</t>
+  </si>
+  <si>
+    <t>discolored-realm.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -175,6 +250,12 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -517,16 +598,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5019BF2-2445-064A-8909-34F9EEA07E5A}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="33.83203125" customWidth="1"/>
-    <col min="3" max="3" width="32.33203125" customWidth="1"/>
+    <col min="2" max="2" width="50" customWidth="1"/>
+    <col min="3" max="3" width="42.83203125" customWidth="1"/>
     <col min="4" max="4" width="24.83203125" customWidth="1"/>
     <col min="5" max="5" width="25.1640625" customWidth="1"/>
   </cols>
@@ -751,7 +832,168 @@
         <v>30</v>
       </c>
     </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2009</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2009</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2009</v>
+      </c>
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2009</v>
+      </c>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2010</v>
+      </c>
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2010</v>
+      </c>
+      <c r="B17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2010</v>
+      </c>
+      <c r="B18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2011</v>
+      </c>
+      <c r="B19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/double-cross/checklist.xlsx
+++ b/double-cross/checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/double-cross/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EC645EC-5E0B-B442-B97F-9C89DFC945FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F98D93-D908-894D-9AEE-D8F2E3B03643}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="460" windowWidth="26740" windowHeight="15780" xr2:uid="{FB8A04DD-F17B-5744-969C-A83E75C4414D}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{FB8A04DD-F17B-5744-969C-A83E75C4414D}"/>
   </bookViews>
   <sheets>
     <sheet name="checklist" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="112">
   <si>
     <t>year</t>
   </si>
@@ -232,6 +232,144 @@
   </si>
   <si>
     <t>discolored-realm.jpg</t>
+  </si>
+  <si>
+    <t>ユニバーサルガーディアン</t>
+  </si>
+  <si>
+    <t>Universal Guardian</t>
+  </si>
+  <si>
+    <t>universal-guardian.jpg</t>
+  </si>
+  <si>
+    <t>レネゲイズアージ</t>
+  </si>
+  <si>
+    <t>Renegade's Urge</t>
+  </si>
+  <si>
+    <t>renegades-urge.jpg</t>
+  </si>
+  <si>
+    <t>エフェクトアーカイブ</t>
+  </si>
+  <si>
+    <t>Effect Archive</t>
+  </si>
+  <si>
+    <t>effect-archive.jpg</t>
+  </si>
+  <si>
+    <t>リンケージマインド</t>
+  </si>
+  <si>
+    <t>Link Age Mind</t>
+  </si>
+  <si>
+    <t>link-age-mind.jpg</t>
+  </si>
+  <si>
+    <t>ヒューマンリレーション</t>
+  </si>
+  <si>
+    <t>Human Relation</t>
+  </si>
+  <si>
+    <t>human-relation.jpg</t>
+  </si>
+  <si>
+    <t>オーバークロック</t>
+  </si>
+  <si>
+    <t>Over Clock</t>
+  </si>
+  <si>
+    <t>over-clock.jpg</t>
+  </si>
+  <si>
+    <t>レネゲイドウォー</t>
+  </si>
+  <si>
+    <t>Renegade War</t>
+  </si>
+  <si>
+    <t>renegade-war.jpg</t>
+  </si>
+  <si>
+    <t>東京アンリミテッド</t>
+  </si>
+  <si>
+    <t>Tokyo Unlimited</t>
+  </si>
+  <si>
+    <t>replay</t>
+  </si>
+  <si>
+    <t>tokyo-unlimited.jpg</t>
+  </si>
+  <si>
+    <t>東京アルティメット</t>
+  </si>
+  <si>
+    <t>Tokyo Ultimate</t>
+  </si>
+  <si>
+    <t>tokyo-ultimate.jpg</t>
+  </si>
+  <si>
+    <t>闇に降る雪―Queen of Blue</t>
+  </si>
+  <si>
+    <t>Snow Falling in the Dark: Queen of Blue</t>
+  </si>
+  <si>
+    <t>queen-of-blue.jpg</t>
+  </si>
+  <si>
+    <t>聖夜に鳴る鐘―Dynast</t>
+  </si>
+  <si>
+    <t>Bell Ringing in the Holy Night: Dynast</t>
+  </si>
+  <si>
+    <t>bell-ringing.jpg</t>
+  </si>
+  <si>
+    <t>オリジン 偽りの仮面</t>
+  </si>
+  <si>
+    <t>Origin: False Mask</t>
+  </si>
+  <si>
+    <t>false-mask.jpg</t>
+  </si>
+  <si>
+    <t>オリジン 残酷な人形</t>
+  </si>
+  <si>
+    <t>Origin: Cruel Doll</t>
+  </si>
+  <si>
+    <t>オリジン―破滅の剣</t>
+  </si>
+  <si>
+    <t>Origin: Sword of Ruin</t>
+  </si>
+  <si>
+    <t>cruel-doll.jpg</t>
+  </si>
+  <si>
+    <t>sword-of-ruin.jpg</t>
+  </si>
+  <si>
+    <t>オリジン　未来の絆</t>
+  </si>
+  <si>
+    <t>Origin: Future Bonds</t>
+  </si>
+  <si>
+    <t>future-bonds.jpg</t>
   </si>
 </sst>
 </file>
@@ -598,10 +736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5019BF2-2445-064A-8909-34F9EEA07E5A}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -694,79 +832,79 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="D6" t="s">
         <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
         <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
@@ -774,59 +912,59 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>102</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
         <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F11" t="s">
         <v>30</v>
@@ -834,162 +972,462 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="D12" t="s">
         <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c r="F12" t="s">
-        <v>9</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="D13" t="s">
         <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>46</v>
+        <v>111</v>
       </c>
       <c r="F13" t="s">
-        <v>9</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
         <v>19</v>
       </c>
       <c r="E14" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="F14" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="D17" t="s">
         <v>19</v>
       </c>
       <c r="E17" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="D18" t="s">
         <v>19</v>
       </c>
       <c r="E18" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
+        <v>2009</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2009</v>
+      </c>
+      <c r="B20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2009</v>
+      </c>
+      <c r="B21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2010</v>
+      </c>
+      <c r="B22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2010</v>
+      </c>
+      <c r="B23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2010</v>
+      </c>
+      <c r="B24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25">
         <v>2011</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B25" t="s">
         <v>63</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C25" t="s">
         <v>64</v>
       </c>
-      <c r="D19" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="D25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" t="s">
         <v>65</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F25" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2011</v>
+      </c>
+      <c r="B26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" t="s">
+        <v>68</v>
+      </c>
+      <c r="F26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2012</v>
+      </c>
+      <c r="B27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" t="s">
+        <v>71</v>
+      </c>
+      <c r="F27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2012</v>
+      </c>
+      <c r="B28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" t="s">
+        <v>74</v>
+      </c>
+      <c r="F28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2013</v>
+      </c>
+      <c r="B29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" t="s">
+        <v>77</v>
+      </c>
+      <c r="F29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>2014</v>
+      </c>
+      <c r="B30" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30" t="s">
+        <v>83</v>
+      </c>
+      <c r="F30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>2014</v>
+      </c>
+      <c r="B31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" t="s">
+        <v>88</v>
+      </c>
+      <c r="D31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" t="s">
+        <v>90</v>
+      </c>
+      <c r="F31" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>2015</v>
+      </c>
+      <c r="B32" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" t="s">
+        <v>80</v>
+      </c>
+      <c r="F32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>2015</v>
+      </c>
+      <c r="B33" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" t="s">
+        <v>92</v>
+      </c>
+      <c r="D33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" t="s">
+        <v>93</v>
+      </c>
+      <c r="F33" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>2016</v>
+      </c>
+      <c r="B34" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" t="s">
+        <v>86</v>
+      </c>
+      <c r="F34" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
